--- a/Documentation/Phase 2/External Documents/TraceabilityMatrix.xlsx
+++ b/Documentation/Phase 2/External Documents/TraceabilityMatrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="86">
   <si>
     <t>Artifact</t>
   </si>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BF5" sqref="BF5"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,10 +1132,16 @@
       <c r="AR2" s="7"/>
       <c r="AS2" s="7"/>
       <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
+      <c r="AU2" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
+      <c r="AW2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AY2" s="7"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
@@ -1213,10 +1219,16 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
+      <c r="AU3" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
+      <c r="AW3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
@@ -1294,10 +1306,16 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
+      <c r="AU4" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
+      <c r="AW4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
@@ -1375,10 +1393,16 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
+      <c r="AU5" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
+      <c r="AW5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
@@ -1456,10 +1480,16 @@
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
+      <c r="AU6" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
+      <c r="AW6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
@@ -1527,10 +1557,16 @@
       <c r="AR7" s="7"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
+      <c r="AU7" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
+      <c r="AW7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
@@ -1598,10 +1634,16 @@
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
+      <c r="AU8" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
+      <c r="AW8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
